--- a/DOM_Banner/output/dept_banner/Sarah Tariq_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Sarah Tariq_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,521 +360,246 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Yu Qiao, Chaoning Zhang, Taegoo Kang, Dong-Hun Kim, Sarah Tariq, Chenshuang Zhang, Choong Seon Hong</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380714749</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Robustness of SAM: Segment Anything Under Corruptions and Beyond</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5064065592", "https://openalex.org/A5057230698", "https://openalex.org/A5021483293", "https://openalex.org/A5065351071", "https://openalex.org/A5050285540", "https://openalex.org/A5034624628", "https://openalex.org/A5003122223"), au_display_name = c("Yu Qiao", "Chaoning Zhang", "Taegoo Kang", "Dong-Hun Kim", "Sarah Tariq", "Chenshuang Zhang", "Choong Seon Hong"), au_orcid = c("https://orcid.org/0000-0001-7205-2924", "https://orcid.org/0000-0001-6007-6099", NA, 
-"https://orcid.org/0000-0002-0813-2660", NA, "https://orcid.org/0000-0002-6655-9494", "https://orcid.org/0009-0006-0835-4112"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("", "", "", "", "", "", ""), institution_id = c(NA, NA, NA, NA, NA, NA, NA), institution_display_name = c(NA, NA, NA, NA, NA, NA, NA), institution_ror = c(NA, NA, NA, NA, NA, NA, NA), institution_country_code = c(NA, NA, NA, NA, NA, NA, NA), institution_type = c(NA, 
-NA, NA, NA, NA, NA, NA), institution_lineage = c(NA, NA, NA, NA, NA, NA, NA))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Segment anything model (SAM), as the name suggests, is claimed to be capable of cutting out any object and demonstrates impressive zero-shot transfer performance with the guidance of prompts. However, there is currently a lack of comprehensive evaluation regarding its robustness under various corruptions. Understanding the robustness of SAM across different corruption scenarios is crucial for its real-world deployment. Prior works show that SAM is biased towards texture (style) rather than shape, motivated by which we start by investigating its robustness against style transfer, which is synthetic corruption. Following by interpreting the effects of synthetic corruption as style changes, we proceed to conduct a comprehensive evaluation for its robustness against 15 types of common corruption. These corruptions mainly fall into categories such as digital, noise, weather, and blur, and within each corruption category, we explore 5 severity levels to simulate real-world corruption scenarios. Beyond the corruptions, we further assess the robustness of SAM against local occlusion and local adversarial patch attacks. To the best of our knowledge, our work is the first of its kind to evaluate the robustness of SAM under style change, local occlusion, and local adversarial patch attacks. Given that patch attacks visible to human eyes are easily detectable, we further assess its robustness against global adversarial attacks that are imperceptible to human eyes. Overall, this work provides a comprehensive empirical study of the robustness of SAM, evaluating its performance under various corruptions and extending the assessment to critical aspects such as local occlusion, local adversarial patch attacks, and global adversarial attacks. These evaluations yield valuable insights into the practical applicability and effectiveness of SAM in addressing real-world challenges.</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>arXiv (Cornell University)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>arXiv (Cornell University)</t>
+          <t>Cornell University</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4306400194</t>
+          <t>https://arxiv.org/abs/2306.07713</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cornell University</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://arxiv.org/abs/2306.07713</t>
+          <t>green</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>https://arxiv.org/pdf/2306.07713</t>
+          <t>en</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.48550/arxiv.2306.07713</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://arxiv.org/pdf/2306.07713</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4380714749</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4380714749", doi = "https://doi.org/10.48550/arxiv.2306.07713")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.48550/arxiv.2306.07713</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W4315780078", "https://openalex.org/W4225161019", "https://openalex.org/W4312326921", "https://openalex.org/W3094843325", "https://openalex.org/W4221146314", "https://openalex.org/W4385573583", "https://openalex.org/W3112862192", "https://openalex.org/W2947920725", "https://openalex.org/W4307309570", "https://openalex.org/W4287686044")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Nader Ebrahimi, C. Gómez Pajuelo, Roshanak Habibi, Sarah Tariq, Sara Ashlyn Penquite</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387433273</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>FRI218 Von Hippel-Lindau With Pheochromocytoma And Severe Orthostatic Hypotension</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5081017140", "https://openalex.org/A5062480247", "https://openalex.org/A5008942890", "https://openalex.org/A5050285540", "https://openalex.org/A5036123606"), au_display_name = c("Nader Ebrahimi", "C. Gómez Pajuelo", "Roshanak Habibi", "Sarah Tariq", "Sara Ashlyn Penquite"), au_orcid = c("https://orcid.org/0000-0003-1687-2412", NA, NA, NA, NA), author_position = c("first", "middle", "middle", "middle", "last"), au_affiliation_raw = c("University of Arizona , Tucson, AZ , USA", 
-"University of Arizona , Tucson, AZ , USA", "UNIVERSITY OF ARIZONA LIBRARY , Tucson, AZ , USA", "University of Arizona , Tucson, AZ , USA", "UNIVERSITY OF ARIZONA , Tucson, AZ , USA"), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I138006243", NA, "https://openalex.org/I138006243", "https://openalex.org/I138006243"), institution_display_name = c("University of Arizona", "University of Arizona", NA, "University of Arizona", "University of Arizona"), institution_ror = c("https://ror.org/03m2x1q45", 
-"https://ror.org/03m2x1q45", NA, "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45"), institution_country_code = c("US", "US", NA, "US", "US"), institution_type = c("education", "education", NA, "education", "education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", NA, "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960"
-))</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Abstract Disclosure: N. Ebrahimi: None. C.G. Rivas Pajuelo: None. R. Habibi: None. S. Tariq: None. S.A. Penquite: None. Introduction: Von Hippel-Lindau (VHL) syndrome clinically manifests with benign and malignant tumors across multiple organ systems including the cerebellum, retina, kidney, and adrenal glands. Pheochromocytoma occurs in 25-30% of patients with VHL. Up to 50% of patients with pheochromocytoma present with hypertension or paroxysmal hypertension, although patients can be normotensive on presentation. Patients with pheochromocytoma are often severely volume depleted due to chronic vasoconstriction. Here we present a case of VHL with pheochromocytoma complicated by profound orthostatic hypotension after initiation of alpha-blockade. Case Presentation: A 32-year-old man presented for evaluation of progressive headache and diplopia. Patient was normotensive on initial presentation with BP 129/80mmHg. Brain MRI with contrast subsequently revealed a posterior fossa cystic mass with an avidly enhancing central nodule concerning for hemangioblastoma. Given these findings, a CT chest/abdomen/pelvis was obtained, which demonstrated a 4.6 x 5.0 cm right adrenal mass, several enhancing renal lesions, and multiple cystic lesions throughout the pancreas. This constellation of radiological findings was clinically concerning for VHL. Further endocrinologic work-up revealed plasma metanephrines 663 pg/mL (insert reference range here), plasma catecholamines 770 pg/mL (insert reference range here), which confirmed the diagnosis of pheochromocytoma. Alpha blockade was initiated with doxazosin 4 mg BID, and a high sodium diet (insert g/day). Shortly after initiation of doxazosin, patient developed severe orthostatic hypotension despite salt loading and volume resuscitation. Ultimately doxazosin was discontinued, and surgery was postponed due to severe symptomatic orthostatic hypotension limiting patient’s ability to get out of bed. High sodium diet was continued on hospital discharge and alpha-adrenergic blockade was later re-initiated which patient is tolerating well. Patient is pending adrenalectomy in the coming weeks. Discussion: Orthostatic hypotension in pheochromocytoma is expected due to volume depletion from chronic vasoconstriction. Alpha adrenergic blockade is required to alleviate hypertension, allow for adequate volume expansion, and to prevent a hypertensive crisis intraoperatively. Clinicians should be aware of the commercially available alpha-adrenergic antagonists and when they should be temporarily discontinued. There is no preferred alpha-adrenergic antagonist agent, however doxazosin has shown to cause less orthostatic hypotension and does not have such an antihypertensive effect as of Phenoxybenzamine. Presentation: Friday, June 16, 2023</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>Journal of the Endocrine Society</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Journal of the Endocrine Society</t>
+          <t>Endocrine Society</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://openalex.org/S2735747656</t>
+          <t>https://doi.org/10.1210/jendso/bvad114.213</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Endocrine Society</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2472-1972</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1210/jendso/bvad114.213</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>cc-by-nc-nd</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Supplement_1</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1210/jendso/bvad114.213</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4387433273</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4387433273", doi = "https://doi.org/10.1210/jendso/bvad114.213")</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1210/jendso/bvad114.213</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2161673817", "https://openalex.org/W2077922034", "https://openalex.org/W1965153529", "https://openalex.org/W2055212627", "https://openalex.org/W2040848137", "https://openalex.org/W4206161767", "https://openalex.org/W2898765265", "https://openalex.org/W2021036769", "https://openalex.org/W1420833956", "https://openalex.org/W1994430650")</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Sarah Tariq_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Sarah Tariq_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380714749</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Robustness of SAM: Segment Anything Under Corruptions and Beyond</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-06-13</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>arXiv (Cornell University)</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Cornell University</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://arxiv.org/abs/2306.07713</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arxiv.2306.07713</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>University of Arizona , Tucson, AZ , USA; University of Arizona , Tucson, AZ , USA; UNIVERSITY OF ARIZONA LIBRARY , Tucson, AZ , USA; University of Arizona , Tucson, AZ , USA; UNIVERSITY OF ARIZONA , Tucson, AZ , USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387433273</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>FRI218 Von Hippel-Lindau With Pheochromocytoma And Severe Orthostatic Hypotension</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Journal of the Endocrine Society</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Endocrine Society</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1210/jendso/bvad114.213</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1210/jendso/bvad114.213</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
